--- a/biology/Botanique/Ferula_khorasanica/Ferula_khorasanica.xlsx
+++ b/biology/Botanique/Ferula_khorasanica/Ferula_khorasanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferula szowitziana (variante orthographique Ferula szowitsiana) est une espèce de plantes à fleurs de la famille des Apiaceae et du genre Ferula, originaire du Moyen-Orient et d'Asie centrale. Le sagapénum, une gomme-résine, lui est parfois attribué, bien qu'il le soit le plus souvent à Ferula persica[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferula szowitziana (variante orthographique Ferula szowitsiana) est une espèce de plantes à fleurs de la famille des Apiaceae et du genre Ferula, originaire du Moyen-Orient et d'Asie centrale. Le sagapénum, une gomme-résine, lui est parfois attribué, bien qu'il le soit le plus souvent à Ferula persica. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les Férules, c'est une plante herbacée à fleurs jaunes disposées en ombelles.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique du Moyen-Orient et d'Asie centrale : elle est indigène en Afghanistan, en Iran, dans le Caucase, en Turquie, au Turkménistan et en Ouzbékistan[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique du Moyen-Orient et d'Asie centrale : elle est indigène en Afghanistan, en Iran, dans le Caucase, en Turquie, au Turkménistan et en Ouzbékistan.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Variété</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (28 avril 2021)[3] :
-Ferula szowitziana var. kandavanensis	Bornm. &amp; Gouba, 1942 (synonyme de Ferula persica Willd. selon GBIF[4])</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 avril 2021) :
+Ferula szowitziana var. kandavanensis	Bornm. &amp; Gouba, 1942 (synonyme de Ferula persica Willd. selon GBIF)</t>
         </is>
       </c>
     </row>
@@ -604,10 +622,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par le botaniste suisse Augustin-Pyramus de Candolle en 1830, qui la classe dans le genre Ferula sous le nom binominal Ferula szowitziana, dans son ouvrage Prodromus systematis naturalis regni vegetabilis[5]. Elle a été déplacée dans le genre Peucedanum par le botaniste et médecin français Henri Ernest Baillon en 1879. Le nom correct est cependant Ferula szowitziana[1].
-Ferula szowitziana a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par le botaniste suisse Augustin-Pyramus de Candolle en 1830, qui la classe dans le genre Ferula sous le nom binominal Ferula szowitziana, dans son ouvrage Prodromus systematis naturalis regni vegetabilis. Elle a été déplacée dans le genre Peucedanum par le botaniste et médecin français Henri Ernest Baillon en 1879. Le nom correct est cependant Ferula szowitziana.
+Ferula szowitziana a pour synonymes :
 Ferula collina Freyn, 1896
 Ferula hirtella Boiss., 1872
 Ferula khorasanica Rech.f. &amp; Aellen, 1952
